--- a/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
+++ b/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Power Controller 2 @ Address 53</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Rail #2: FPGA I/O Bank 0 and DDR Termination (2.5 V)</t>
+  </si>
+  <si>
+    <t>+ Power supply (90 % efficiency)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,6 +261,13 @@
     <xf numFmtId="48" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -563,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1087,23 +1097,23 @@
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="9">
         <f>IF(B12&lt;&gt;"",SUM(B28:B30),"")</f>
         <v>1.3900000000000001</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="9">
         <f t="shared" ref="C31:F31" si="8">IF(C12&lt;&gt;"",SUM(C28:C30),"")</f>
         <v>1.42</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="9">
         <f t="shared" si="8"/>
         <v>1.53</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="9">
         <f t="shared" si="8"/>
         <v>2.33</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="9">
         <f t="shared" si="8"/>
         <v>1.71</v>
       </c>
@@ -1168,68 +1178,93 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>27</v>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18">
+        <f>B31/0.9</f>
+        <v>1.5444444444444445</v>
+      </c>
+      <c r="C32" s="18">
+        <f t="shared" ref="C32:F32" si="11">C31/0.9</f>
+        <v>1.5777777777777777</v>
+      </c>
+      <c r="D32" s="18">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="11"/>
+        <v>2.588888888888889</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="11"/>
+        <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>0.105</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F36" s="12">
         <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="17">
-        <v>299246000</v>
-      </c>
-      <c r="F38" s="17">
-        <v>10784400</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="17">
+        <v>299246000</v>
+      </c>
+      <c r="F39" s="17">
+        <v>10784400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="17">
-        <f>E31/E38</f>
-        <v>7.7862360733309726E-9</v>
-      </c>
-      <c r="F39" s="17">
-        <f>F31/F38</f>
-        <v>1.5856236786469345E-7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="13"/>
+      <c r="E40" s="17">
+        <f>E32/E39</f>
+        <v>8.6513734148121916E-9</v>
+      </c>
+      <c r="F40" s="17">
+        <f>F32/F39</f>
+        <v>1.7618040873854825E-7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
+++ b/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Power Controller 3 @ Address 54</t>
   </si>
   <si>
-    <t>Rail #1: Board 3.3 V (LEDs, Crystals, EEPROM, USB, etc.)</t>
-  </si>
-  <si>
     <t>PL total</t>
   </si>
   <si>
@@ -130,10 +127,13 @@
     <t>Revision: 030314191d71906e261a9f05dc00360152a44c42</t>
   </si>
   <si>
-    <t>Rail #2: FPGA I/O Bank 0 and DDR Termination (2.5 V)</t>
-  </si>
-  <si>
     <t>+ Power supply (90 % efficiency)</t>
+  </si>
+  <si>
+    <t>Rail #1: Board 3.3 V (LEDs, USB-Crystals, EEPROM, USB, etc.)</t>
+  </si>
+  <si>
+    <t>Rail #2: FPGA I/O Bank 0 and DDR Termination and FPGA crystals (2.5 V)</t>
   </si>
 </sst>
 </file>
@@ -576,12 +576,12 @@
   <dimension ref="A1:BD42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" bestFit="1" customWidth="1"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -602,7 +602,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -632,7 +632,7 @@
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -642,29 +642,29 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="9">
         <v>0.04</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="9">
         <v>0.22</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="9">
         <v>0.06</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="9">
         <v>0.17</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9">
         <v>0.08</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="9">
         <v>0.65</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="9">
         <v>0.06</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9">
         <v>0.03</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="24" spans="1:56" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B24" s="10">
         <v>0.78</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="25" spans="1:56" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="9">
         <v>0.08</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="9">
         <f t="shared" ref="B28:D28" si="0">IF(B12&lt;&gt;"",B12+B14+B21,"")</f>
@@ -969,7 +969,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="9">
         <f>IF(B12&lt;&gt;"",B13+B15+B18+B20+B25,"")</f>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9">
         <f>IF(B13&lt;&gt;"",B19,"")</f>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="9">
         <f>IF(B12&lt;&gt;"",SUM(B28:B30),"")</f>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="18">
         <f>B31/0.9</f>
@@ -1205,32 +1205,32 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="11">
         <v>0.105</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="17">
         <v>299246000</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="17">
         <f>E32/E39</f>

--- a/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
+++ b/results/2013.09.02_heston_sl_zynq_3x/power.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Power Controller 2 @ Address 53</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>Rail #2: FPGA I/O Bank 0 and DDR Termination and FPGA crystals (2.5 V)</t>
+  </si>
+  <si>
+    <t>Heston_SL_6x
+acc_bench1</t>
   </si>
 </sst>
 </file>
@@ -270,8 +274,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -287,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +331,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -399,7 +403,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,11 +579,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="9" bestFit="1" customWidth="1"/>
@@ -587,10 +591,11 @@
     <col min="4" max="4" width="14" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -610,7 +615,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -620,7 +625,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -630,7 +635,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -640,17 +645,17 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
@@ -666,13 +671,16 @@
       <c r="F10" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -691,8 +699,9 @@
       <c r="F12" s="9">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
@@ -711,8 +720,9 @@
       <c r="F13" s="9">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -731,8 +741,9 @@
       <c r="F14" s="9">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -751,11 +762,16 @@
       <c r="F15" s="9">
         <v>0.17</v>
       </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -776,6 +792,7 @@
       <c r="F18" s="9">
         <v>0.08</v>
       </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -796,6 +813,7 @@
       <c r="F19" s="9">
         <v>0.66</v>
       </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -816,6 +834,7 @@
       <c r="F20" s="9">
         <v>0.06</v>
       </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -836,11 +855,16 @@
       <c r="F21" s="9">
         <v>0.03</v>
       </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:56" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -861,8 +885,9 @@
       <c r="F24" s="10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:56" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:56" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>39</v>
       </c>
@@ -881,6 +906,13 @@
       <c r="F25" s="9">
         <v>0.08</v>
       </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1202,8 +1234,11 @@
         <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="9">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -1217,7 +1252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1249,8 +1284,11 @@
       <c r="F39" s="17">
         <v>10784400</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="17">
+        <v>599247000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -1262,8 +1300,12 @@
         <f>F32/F39</f>
         <v>1.7618040873854825E-7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="17">
+        <f>G32/G39</f>
+        <v>4.3387785003512744E-9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E42" s="13"/>
     </row>
   </sheetData>
